--- a/biostat_homework_092023/Варианты.xlsx
+++ b/biostat_homework_092023/Варианты.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3fb27d92fd615c6b/Tinkering/biostat_homework_092023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Лиза\git\BioStat_2023\biostat_homework_092023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16BE892B-C1BF-4BB0-9324-FD90026CC1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B379DB-B67B-4D42-892D-9274A9C43AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="1970" windowWidth="12990" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +224,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -267,11 +279,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -493,7 +507,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -501,7 +515,7 @@
     <col min="2" max="2" width="15.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,13 +659,13 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>2</v>
       </c>
     </row>
